--- a/Libraries/Vehicle/Tire/CFL/sm_car_data_Tire_CFL.xlsx
+++ b/Libraries/Vehicle/Tire/CFL/sm_car_data_Tire_CFL.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt\Libraries\Vehicle\Tire\CFL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt_srcR22a\Libraries\Vehicle\Tire\CFL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE091C09-F5F8-4B20-96D5-F737CCF1EE04}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C0CD736-D476-48BB-8F60-869EA8DD2F0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="868" activeTab="2" xr2:uid="{77C5F530-BF82-43C8-8187-4F4154957BDB}"/>
+    <workbookView xWindow="3195" yWindow="2265" windowWidth="20595" windowHeight="11235" tabRatio="868" activeTab="1" xr2:uid="{77C5F530-BF82-43C8-8187-4F4154957BDB}"/>
   </bookViews>
   <sheets>
     <sheet name="Tir_213_40R21" sheetId="3" r:id="rId1"/>
-    <sheet name="Tir_235_50R24" sheetId="5" r:id="rId2"/>
-    <sheet name="Tir_270_70R22" sheetId="6" r:id="rId3"/>
+    <sheet name="Tir_214_10R39" sheetId="7" r:id="rId2"/>
+    <sheet name="Tir_235_50R24" sheetId="5" r:id="rId3"/>
+    <sheet name="Tir_270_70R22" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="38">
   <si>
     <t>Units</t>
   </si>
@@ -144,6 +150,9 @@
   </si>
   <si>
     <t>Tire</t>
+  </si>
+  <si>
+    <t>CFL_214_10R39</t>
   </si>
 </sst>
 </file>
@@ -214,7 +223,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -227,9 +236,8 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -244,39 +252,19 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="14">
     <dxf>
       <fill>
         <patternFill>
@@ -389,9 +377,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -429,7 +417,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -535,7 +523,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -677,7 +665,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -688,7 +676,7 @@
   <sheetPr>
     <tabColor theme="3" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:AA27"/>
+  <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
@@ -698,20 +686,20 @@
       <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="19" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="16" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="10" width="6.6640625" customWidth="1"/>
-    <col min="11" max="11" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="6.6640625" customWidth="1"/>
+    <col min="9" max="10" width="6.7109375" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -731,241 +719,140 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="20" t="s">
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="I2"/>
-      <c r="J2"/>
-      <c r="K2"/>
-      <c r="L2"/>
-      <c r="M2"/>
-      <c r="N2"/>
-      <c r="O2"/>
-      <c r="P2"/>
-      <c r="R2"/>
-      <c r="S2"/>
-      <c r="T2"/>
-      <c r="U2"/>
-      <c r="V2"/>
-      <c r="W2"/>
-      <c r="X2"/>
-      <c r="Y2"/>
-      <c r="Z2"/>
-      <c r="AA2"/>
-    </row>
-    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8" t="s">
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="I3"/>
-      <c r="J3"/>
-      <c r="K3"/>
-      <c r="L3"/>
-      <c r="M3"/>
-      <c r="N3"/>
-      <c r="O3"/>
-      <c r="P3"/>
-      <c r="R3"/>
-      <c r="S3"/>
-      <c r="T3"/>
-      <c r="U3"/>
-      <c r="V3"/>
-      <c r="W3"/>
-      <c r="X3"/>
-      <c r="Y3"/>
-      <c r="Z3"/>
-      <c r="AA3"/>
-    </row>
-    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="12" t="s">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="J4"/>
-      <c r="K4"/>
-      <c r="L4"/>
-      <c r="M4"/>
-      <c r="N4"/>
-      <c r="O4"/>
-      <c r="P4"/>
-      <c r="R4"/>
-      <c r="S4"/>
-      <c r="T4"/>
-      <c r="U4"/>
-      <c r="V4"/>
-      <c r="W4"/>
-      <c r="X4"/>
-      <c r="Y4"/>
-      <c r="Z4"/>
-      <c r="AA4"/>
-    </row>
-    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="13" t="s">
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="8">
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="14"/>
+      <c r="H5" s="7">
         <v>0.35</v>
       </c>
-      <c r="J5"/>
-      <c r="K5"/>
-      <c r="L5"/>
-      <c r="M5"/>
-      <c r="N5"/>
-      <c r="O5"/>
-      <c r="P5"/>
-      <c r="Q5"/>
-      <c r="R5"/>
-      <c r="S5"/>
-      <c r="T5"/>
-      <c r="U5"/>
-      <c r="V5"/>
-      <c r="W5"/>
-      <c r="X5"/>
-      <c r="Y5"/>
-      <c r="Z5"/>
-      <c r="AA5"/>
-    </row>
-    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="7">
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="6">
         <v>0.26669999999999999</v>
       </c>
-      <c r="I6"/>
-      <c r="J6"/>
-      <c r="K6"/>
-      <c r="L6" s="7"/>
-      <c r="M6"/>
-      <c r="N6" s="16"/>
-      <c r="O6"/>
-      <c r="P6"/>
-      <c r="Q6"/>
-      <c r="R6"/>
-      <c r="S6"/>
-      <c r="T6"/>
-    </row>
-    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="13" t="s">
+      <c r="L6" s="6"/>
+      <c r="N6" s="15"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="7">
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="6">
         <v>0.21299999999999999</v>
       </c>
-      <c r="I7"/>
-      <c r="J7"/>
-      <c r="K7"/>
-      <c r="M7" s="16"/>
-      <c r="N7"/>
-      <c r="O7"/>
-      <c r="P7"/>
-      <c r="Q7"/>
-      <c r="R7"/>
-      <c r="S7"/>
-      <c r="T7"/>
-    </row>
-    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="M7" s="15"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>35</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
-      <c r="D8" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="7">
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="6">
         <f>H7/5</f>
         <v>4.2599999999999999E-2</v>
       </c>
-      <c r="I8"/>
-      <c r="J8"/>
-      <c r="K8"/>
-      <c r="M8" s="16"/>
-      <c r="N8"/>
-      <c r="O8"/>
-      <c r="P8"/>
-      <c r="Q8"/>
-      <c r="R8"/>
-      <c r="S8"/>
-      <c r="T8"/>
-    </row>
-    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="M8" s="15"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
-      <c r="D9" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="7">
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="6">
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>33</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
-      <c r="D10" s="6" t="s">
+      <c r="D10" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="7">
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>23</v>
       </c>
@@ -974,16 +861,16 @@
       <c r="D11" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="7">
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="6">
         <v>0.39100000000000001</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="6">
         <v>0.73599999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>24</v>
       </c>
@@ -992,91 +879,91 @@
       <c r="D12" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="7">
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="6">
         <v>0</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
-      <c r="D13" s="6" t="s">
+      <c r="D13" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="7">
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="6">
         <v>209652</v>
       </c>
     </row>
-    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
-      <c r="D14" s="6" t="s">
+      <c r="D14" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="7">
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="6">
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
-      <c r="E15" s="6" t="s">
+      <c r="E15" t="s">
         <v>29</v>
       </c>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7">
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6">
         <v>0.7</v>
       </c>
     </row>
-    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
-      <c r="E16" s="6" t="s">
+      <c r="E16" t="s">
         <v>30</v>
       </c>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7">
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6">
         <v>0.8</v>
       </c>
     </row>
-    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
-      <c r="D17" s="6" t="s">
+      <c r="D17" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7">
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6">
         <v>0.01</v>
       </c>
     </row>
-    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>17</v>
       </c>
@@ -1084,16 +971,16 @@
         <v>18</v>
       </c>
       <c r="C18" s="5"/>
-      <c r="D18" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7">
+      <c r="D18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6">
         <v>800</v>
       </c>
     </row>
-    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>17</v>
       </c>
@@ -1101,125 +988,73 @@
         <v>19</v>
       </c>
       <c r="C19" s="5"/>
-      <c r="D19" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7">
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6">
         <v>800</v>
       </c>
     </row>
-    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="17"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-    </row>
-    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="17"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-    </row>
-    <row r="22" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-    </row>
-    <row r="23" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-    </row>
-    <row r="24" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="17"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-    </row>
-    <row r="25" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="17"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A26" s="17"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
-      <c r="N26" s="6"/>
-      <c r="O26" s="6"/>
-      <c r="P26" s="6"/>
-      <c r="Q26" s="6"/>
-      <c r="R26" s="6"/>
-      <c r="S26" s="6"/>
-      <c r="T26" s="6"/>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A27" s="17"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
-      <c r="N27" s="6"/>
-      <c r="O27" s="6"/>
-      <c r="P27" s="6"/>
-      <c r="Q27" s="6"/>
-      <c r="R27" s="6"/>
-      <c r="S27" s="6"/>
-      <c r="T27" s="6"/>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C22" s="16"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C23" s="16"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C26" s="16"/>
+      <c r="H26" s="17"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C27" s="16"/>
+      <c r="H27" s="17"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C22:C25 A22:A25 C4:D4 A4:A7 C5:C7 C11:C14 A11:A14 C9 A9">
-    <cfRule type="cellIs" dxfId="15" priority="7" operator="equal">
+  <conditionalFormatting sqref="A4:A14 C5:C14">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A27">
-    <cfRule type="cellIs" dxfId="14" priority="5" operator="equal">
+  <conditionalFormatting sqref="A22:A27">
+    <cfRule type="cellIs" dxfId="12" priority="5" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A26">
-    <cfRule type="cellIs" dxfId="13" priority="6" operator="equal">
+  <conditionalFormatting sqref="C4:D4 C22:C25">
+    <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C10 A10">
-    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C8 A8">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1228,11 +1063,402 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21E3CEEA-6CA0-4AEA-AD70-32B73A566324}">
+  <sheetPr>
+    <tabColor theme="3" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:N27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="E9" sqref="E9"/>
+      <selection pane="topRight" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomRight" activeCell="K15" sqref="K15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" style="16" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="8" width="10" customWidth="1"/>
+    <col min="9" max="10" width="6.7109375" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="6.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="14"/>
+      <c r="H5" s="7">
+        <v>0.52749999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="6">
+        <v>0.26669999999999999</v>
+      </c>
+      <c r="L6" s="6"/>
+      <c r="N6" s="15"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="6">
+        <v>0.214</v>
+      </c>
+      <c r="M7" s="15"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="6">
+        <f>0.213</f>
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="M8" s="15"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="6">
+        <v>15.377800000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="6">
+        <v>1.2252000000000001</v>
+      </c>
+      <c r="I11" s="6">
+        <v>0.73599999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="6">
+        <v>0</v>
+      </c>
+      <c r="I12" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="6">
+        <v>306652</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="6">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="E15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C22" s="16"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C23" s="16"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C26" s="16"/>
+      <c r="H26" s="17"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C27" s="16"/>
+      <c r="H27" s="17"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A4:A14 C5:C14">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A22:A27">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4:D4 C22:C25">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFFA0009-6ADF-4A87-8311-FBC5AF18A79D}">
   <sheetPr>
     <tabColor theme="3" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:AA27"/>
+  <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
@@ -1242,20 +1468,20 @@
       <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="19" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="16" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="10" width="6.6640625" customWidth="1"/>
-    <col min="11" max="11" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="6.6640625" customWidth="1"/>
+    <col min="9" max="10" width="6.7109375" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -1275,241 +1501,140 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="20" t="s">
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="I2"/>
-      <c r="J2"/>
-      <c r="K2"/>
-      <c r="L2"/>
-      <c r="M2"/>
-      <c r="N2"/>
-      <c r="O2"/>
-      <c r="P2"/>
-      <c r="R2"/>
-      <c r="S2"/>
-      <c r="T2"/>
-      <c r="U2"/>
-      <c r="V2"/>
-      <c r="W2"/>
-      <c r="X2"/>
-      <c r="Y2"/>
-      <c r="Z2"/>
-      <c r="AA2"/>
-    </row>
-    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8" t="s">
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I3"/>
-      <c r="J3"/>
-      <c r="K3"/>
-      <c r="L3"/>
-      <c r="M3"/>
-      <c r="N3"/>
-      <c r="O3"/>
-      <c r="P3"/>
-      <c r="R3"/>
-      <c r="S3"/>
-      <c r="T3"/>
-      <c r="U3"/>
-      <c r="V3"/>
-      <c r="W3"/>
-      <c r="X3"/>
-      <c r="Y3"/>
-      <c r="Z3"/>
-      <c r="AA3"/>
-    </row>
-    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="12" t="s">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="J4"/>
-      <c r="K4"/>
-      <c r="L4"/>
-      <c r="M4"/>
-      <c r="N4"/>
-      <c r="O4"/>
-      <c r="P4"/>
-      <c r="R4"/>
-      <c r="S4"/>
-      <c r="T4"/>
-      <c r="U4"/>
-      <c r="V4"/>
-      <c r="W4"/>
-      <c r="X4"/>
-      <c r="Y4"/>
-      <c r="Z4"/>
-      <c r="AA4"/>
-    </row>
-    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="13" t="s">
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="8">
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="14"/>
+      <c r="H5" s="7">
         <v>0.42249999999999999</v>
       </c>
-      <c r="J5"/>
-      <c r="K5"/>
-      <c r="L5"/>
-      <c r="M5"/>
-      <c r="N5"/>
-      <c r="O5"/>
-      <c r="P5"/>
-      <c r="Q5"/>
-      <c r="R5"/>
-      <c r="S5"/>
-      <c r="T5"/>
-      <c r="U5"/>
-      <c r="V5"/>
-      <c r="W5"/>
-      <c r="X5"/>
-      <c r="Y5"/>
-      <c r="Z5"/>
-      <c r="AA5"/>
-    </row>
-    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="7">
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="6">
         <v>0.30480000000000002</v>
       </c>
-      <c r="I6"/>
-      <c r="J6"/>
-      <c r="K6"/>
-      <c r="L6" s="7"/>
-      <c r="M6"/>
-      <c r="N6" s="16"/>
-      <c r="O6"/>
-      <c r="P6"/>
-      <c r="Q6"/>
-      <c r="R6"/>
-      <c r="S6"/>
-      <c r="T6"/>
-    </row>
-    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="13" t="s">
+      <c r="L6" s="6"/>
+      <c r="N6" s="15"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="7">
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="6">
         <v>0.23499999999999999</v>
       </c>
-      <c r="I7"/>
-      <c r="J7"/>
-      <c r="K7"/>
-      <c r="M7" s="16"/>
-      <c r="N7"/>
-      <c r="O7"/>
-      <c r="P7"/>
-      <c r="Q7"/>
-      <c r="R7"/>
-      <c r="S7"/>
-      <c r="T7"/>
-    </row>
-    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
+      <c r="M7" s="15"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="7">
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="6">
         <f>H7/5</f>
         <v>4.7E-2</v>
       </c>
-      <c r="I8"/>
-      <c r="J8"/>
-      <c r="K8"/>
-      <c r="M8" s="16"/>
-      <c r="N8"/>
-      <c r="O8"/>
-      <c r="P8"/>
-      <c r="Q8"/>
-      <c r="R8"/>
-      <c r="S8"/>
-      <c r="T8"/>
-    </row>
-    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="M8" s="15"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
-      <c r="D9" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="7">
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="6">
         <v>15.377800000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>33</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
-      <c r="D10" s="6" t="s">
+      <c r="D10" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="7">
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>23</v>
       </c>
@@ -1518,16 +1643,16 @@
       <c r="D11" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="7">
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="6">
         <v>1.2242</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="6">
         <v>2.3513999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>24</v>
       </c>
@@ -1536,91 +1661,91 @@
       <c r="D12" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="7">
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="6">
         <v>0</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
-      <c r="D13" s="6" t="s">
+      <c r="D13" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="7">
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="6">
         <v>306744</v>
       </c>
     </row>
-    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
-      <c r="D14" s="6" t="s">
+      <c r="D14" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="7">
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="6">
         <v>306.7</v>
       </c>
     </row>
-    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
-      <c r="E15" s="6" t="s">
+      <c r="E15" t="s">
         <v>29</v>
       </c>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7">
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6">
         <v>0.7</v>
       </c>
     </row>
-    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
-      <c r="E16" s="6" t="s">
+      <c r="E16" t="s">
         <v>30</v>
       </c>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7">
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6">
         <v>0.8</v>
       </c>
     </row>
-    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
-      <c r="D17" s="6" t="s">
+      <c r="D17" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7">
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6">
         <v>0.01</v>
       </c>
     </row>
-    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>17</v>
       </c>
@@ -1628,16 +1753,16 @@
         <v>18</v>
       </c>
       <c r="C18" s="5"/>
-      <c r="D18" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7">
+      <c r="D18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6">
         <v>800</v>
       </c>
     </row>
-    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>17</v>
       </c>
@@ -1645,125 +1770,68 @@
         <v>19</v>
       </c>
       <c r="C19" s="5"/>
-      <c r="D19" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7">
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6">
         <v>800</v>
       </c>
     </row>
-    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="17"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-    </row>
-    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="17"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-    </row>
-    <row r="22" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-    </row>
-    <row r="23" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-    </row>
-    <row r="24" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="17"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-    </row>
-    <row r="25" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="17"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A26" s="17"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
-      <c r="N26" s="6"/>
-      <c r="O26" s="6"/>
-      <c r="P26" s="6"/>
-      <c r="Q26" s="6"/>
-      <c r="R26" s="6"/>
-      <c r="S26" s="6"/>
-      <c r="T26" s="6"/>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A27" s="17"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
-      <c r="N27" s="6"/>
-      <c r="O27" s="6"/>
-      <c r="P27" s="6"/>
-      <c r="Q27" s="6"/>
-      <c r="R27" s="6"/>
-      <c r="S27" s="6"/>
-      <c r="T27" s="6"/>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C22" s="16"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C23" s="16"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C26" s="16"/>
+      <c r="H26" s="17"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C27" s="16"/>
+      <c r="H27" s="17"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C22:C25 A22:A25 C4:D5 C6:C7 A4:A7 A13:A14 C13:C14 A9 C9">
-    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
+  <conditionalFormatting sqref="A4:A14 C6:C14">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A27">
+  <conditionalFormatting sqref="A22:A27">
     <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A26">
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C11:C12 A11:A12">
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C10 A10">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C8 A8">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+  <conditionalFormatting sqref="C4:D5 C22:C25">
+    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1771,14 +1839,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68EE8F79-458C-42E5-8226-ADAAA3782419}">
   <sheetPr>
     <tabColor theme="3" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:AA27"/>
+  <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E9" sqref="E9"/>
       <selection pane="topRight" activeCell="E9" sqref="E9"/>
@@ -1786,21 +1854,21 @@
       <selection pane="bottomRight" activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="19" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="16" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
     <col min="6" max="7" width="10" customWidth="1"/>
-    <col min="8" max="8" width="10.88671875" customWidth="1"/>
-    <col min="9" max="10" width="6.6640625" customWidth="1"/>
-    <col min="11" max="11" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="6.6640625" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" customWidth="1"/>
+    <col min="9" max="10" width="6.7109375" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -1820,241 +1888,140 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="20" t="s">
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="I2"/>
-      <c r="J2"/>
-      <c r="K2"/>
-      <c r="L2"/>
-      <c r="M2"/>
-      <c r="N2"/>
-      <c r="O2"/>
-      <c r="P2"/>
-      <c r="R2"/>
-      <c r="S2"/>
-      <c r="T2"/>
-      <c r="U2"/>
-      <c r="V2"/>
-      <c r="W2"/>
-      <c r="X2"/>
-      <c r="Y2"/>
-      <c r="Z2"/>
-      <c r="AA2"/>
-    </row>
-    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8" t="s">
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="I3"/>
-      <c r="J3"/>
-      <c r="K3"/>
-      <c r="L3"/>
-      <c r="M3"/>
-      <c r="N3"/>
-      <c r="O3"/>
-      <c r="P3"/>
-      <c r="R3"/>
-      <c r="S3"/>
-      <c r="T3"/>
-      <c r="U3"/>
-      <c r="V3"/>
-      <c r="W3"/>
-      <c r="X3"/>
-      <c r="Y3"/>
-      <c r="Z3"/>
-      <c r="AA3"/>
-    </row>
-    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="12" t="s">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="J4"/>
-      <c r="K4"/>
-      <c r="L4"/>
-      <c r="M4"/>
-      <c r="N4"/>
-      <c r="O4"/>
-      <c r="P4"/>
-      <c r="R4"/>
-      <c r="S4"/>
-      <c r="T4"/>
-      <c r="U4"/>
-      <c r="V4"/>
-      <c r="W4"/>
-      <c r="X4"/>
-      <c r="Y4"/>
-      <c r="Z4"/>
-      <c r="AA4"/>
-    </row>
-    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="13" t="s">
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="8">
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="14"/>
+      <c r="H5" s="7">
         <v>0.46129999999999999</v>
       </c>
-      <c r="J5"/>
-      <c r="K5"/>
-      <c r="L5"/>
-      <c r="M5"/>
-      <c r="N5"/>
-      <c r="O5"/>
-      <c r="P5"/>
-      <c r="Q5"/>
-      <c r="R5"/>
-      <c r="S5"/>
-      <c r="T5"/>
-      <c r="U5"/>
-      <c r="V5"/>
-      <c r="W5"/>
-      <c r="X5"/>
-      <c r="Y5"/>
-      <c r="Z5"/>
-      <c r="AA5"/>
-    </row>
-    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="7">
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="6">
         <v>0.27939999999999998</v>
       </c>
-      <c r="I6"/>
-      <c r="J6"/>
-      <c r="K6"/>
-      <c r="L6" s="7"/>
-      <c r="M6"/>
-      <c r="N6" s="16"/>
-      <c r="O6"/>
-      <c r="P6"/>
-      <c r="Q6"/>
-      <c r="R6"/>
-      <c r="S6"/>
-      <c r="T6"/>
-    </row>
-    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="13" t="s">
+      <c r="L6" s="6"/>
+      <c r="N6" s="15"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="7">
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="6">
         <v>0.27</v>
       </c>
-      <c r="I7"/>
-      <c r="J7"/>
-      <c r="K7"/>
-      <c r="M7" s="16"/>
-      <c r="N7"/>
-      <c r="O7"/>
-      <c r="P7"/>
-      <c r="Q7"/>
-      <c r="R7"/>
-      <c r="S7"/>
-      <c r="T7"/>
-    </row>
-    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="M7" s="15"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>35</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
-      <c r="D8" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="7">
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="6">
         <f>H7/5</f>
         <v>5.4000000000000006E-2</v>
       </c>
-      <c r="I8"/>
-      <c r="J8"/>
-      <c r="K8"/>
-      <c r="M8" s="16"/>
-      <c r="N8"/>
-      <c r="O8"/>
-      <c r="P8"/>
-      <c r="Q8"/>
-      <c r="R8"/>
-      <c r="S8"/>
-      <c r="T8"/>
-    </row>
-    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="M8" s="15"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
-      <c r="D9" s="6" t="s">
+      <c r="D9" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="7">
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="6">
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>33</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
-      <c r="D10" s="6" t="s">
+      <c r="D10" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="7">
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>23</v>
       </c>
@@ -2063,16 +2030,16 @@
       <c r="D11" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="7">
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="6">
         <v>10.5</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="6">
         <v>16.8</v>
       </c>
     </row>
-    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>24</v>
       </c>
@@ -2081,91 +2048,91 @@
       <c r="D12" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="7">
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="6">
         <v>0</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
-      <c r="D13" s="6" t="s">
+      <c r="D13" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="7">
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="6">
         <v>1000000</v>
       </c>
     </row>
-    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
-      <c r="D14" s="6" t="s">
+      <c r="D14" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="7">
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="6">
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
-      <c r="E15" s="6" t="s">
+      <c r="E15" t="s">
         <v>29</v>
       </c>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7">
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6">
         <v>0.7</v>
       </c>
     </row>
-    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
-      <c r="E16" s="6" t="s">
+      <c r="E16" t="s">
         <v>30</v>
       </c>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7">
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6">
         <v>0.8</v>
       </c>
     </row>
-    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
-      <c r="D17" s="6" t="s">
+      <c r="D17" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7">
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6">
         <v>0.01</v>
       </c>
     </row>
-    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>17</v>
       </c>
@@ -2173,16 +2140,16 @@
         <v>18</v>
       </c>
       <c r="C18" s="5"/>
-      <c r="D18" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7">
+      <c r="D18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6">
         <v>800</v>
       </c>
     </row>
-    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>17</v>
       </c>
@@ -2190,115 +2157,68 @@
         <v>19</v>
       </c>
       <c r="C19" s="5"/>
-      <c r="D19" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7">
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6">
         <v>800</v>
       </c>
     </row>
-    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="17"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-    </row>
-    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="17"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-    </row>
-    <row r="22" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-    </row>
-    <row r="23" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-    </row>
-    <row r="24" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="17"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-    </row>
-    <row r="25" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="17"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A26" s="17"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
-      <c r="N26" s="6"/>
-      <c r="O26" s="6"/>
-      <c r="P26" s="6"/>
-      <c r="Q26" s="6"/>
-      <c r="R26" s="6"/>
-      <c r="S26" s="6"/>
-      <c r="T26" s="6"/>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A27" s="17"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
-      <c r="N27" s="6"/>
-      <c r="O27" s="6"/>
-      <c r="P27" s="6"/>
-      <c r="Q27" s="6"/>
-      <c r="R27" s="6"/>
-      <c r="S27" s="6"/>
-      <c r="T27" s="6"/>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C22" s="16"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C23" s="16"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C26" s="16"/>
+      <c r="H26" s="17"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C27" s="16"/>
+      <c r="H27" s="17"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C22:C25 A22:A25 C4:D5 C6:C10 A4:A10 A13:A14 C13:C14">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+  <conditionalFormatting sqref="A4:A14 C6:C14">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A27">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+  <conditionalFormatting sqref="A22:A27">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A26">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C11:C12 A11:A12">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+  <conditionalFormatting sqref="C4:D5 C22:C25">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
